--- a/绩效评定/小组绩效评定表.xlsx
+++ b/绩效评定/小组绩效评定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>计划阶段</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>陈正祎</t>
+  </si>
+  <si>
+    <t>翻转01</t>
   </si>
 </sst>
 </file>
@@ -87,12 +90,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +119,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,129 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,61 +272,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,121 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +463,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,21 +512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,177 +534,186 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A11" sqref="A11:R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="11.8611111111111" customWidth="1"/>
@@ -1117,50 +1112,50 @@
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>38</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>18</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="F3" s="3">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
         <v>8</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>SUM(B3:G3)</f>
         <v>91</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>94</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>97</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>91</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>89</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>95</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>93.5</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="2">
         <v>93.5</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>92.3</v>
       </c>
     </row>
@@ -1168,50 +1163,50 @@
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>37</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>17</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="E4" s="3">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
         <v>10</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>8</v>
       </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H5" si="0">SUM(B4:G4)</f>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H7" si="0">SUM(B4:G4)</f>
         <v>89</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>96</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>95</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>96</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>90</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>93</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>93</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>94.4</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>91.7</v>
       </c>
     </row>
@@ -1219,50 +1214,50 @@
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>36</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>17</v>
       </c>
-      <c r="D5" s="3">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2">
         <v>8</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>92</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>97</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>90</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>96</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>92</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>92</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>92.7</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <v>90.4</v>
       </c>
     </row>
@@ -1270,50 +1265,52 @@
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>38</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="2">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
         <v>8</v>
       </c>
-      <c r="H6">
-        <f>SUM(B6:G6)</f>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="J6" s="3">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
         <v>95</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>93</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>96</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>91</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>96</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>94</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>94.4</v>
       </c>
-      <c r="R6" s="3">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
         <v>93.7</v>
       </c>
     </row>
@@ -1321,51 +1318,378 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>39</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>19</v>
       </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <f>SUM(B7:G7)</f>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="J7" s="3">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
         <v>93</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>92</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>98</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>93</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>94</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>95</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>93.9</v>
       </c>
-      <c r="R7" s="3">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
         <v>94.5</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ref="H12:H16" si="1">SUM(B12:G12)</f>
+        <v>90</v>
+      </c>
+      <c r="J12" s="2">
+        <v>95</v>
+      </c>
+      <c r="K12" s="2">
+        <v>96</v>
+      </c>
+      <c r="L12" s="2">
+        <v>93</v>
+      </c>
+      <c r="M12" s="2">
+        <v>90</v>
+      </c>
+      <c r="N12" s="2">
+        <v>95</v>
+      </c>
+      <c r="O12" s="2">
+        <f>(O13+O14+O15+O16)/4</f>
+        <v>94.5</v>
+      </c>
+      <c r="P12" s="2">
+        <f>J12*0.4+K12*0.1+L12*0.1+M12*0.1+N12*0.1+O12*0.2</f>
+        <v>94.3</v>
+      </c>
+      <c r="R12" s="2">
+        <f>P12*0.5+H12*0.5</f>
+        <v>92.15</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:18">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="J13" s="2">
+        <v>94</v>
+      </c>
+      <c r="K13" s="2">
+        <v>93</v>
+      </c>
+      <c r="L13" s="2">
+        <v>93</v>
+      </c>
+      <c r="M13" s="2">
+        <v>95</v>
+      </c>
+      <c r="N13" s="2">
+        <v>92</v>
+      </c>
+      <c r="O13" s="2">
+        <v>93</v>
+      </c>
+      <c r="P13" s="2">
+        <f>J13*0.4+K13*0.1+L13*0.1+M13*0.1+N13*0.1+O13*0.2</f>
+        <v>93.5</v>
+      </c>
+      <c r="R13" s="2">
+        <f>P13*0.5+H13*0.5</f>
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="J14" s="2">
+        <v>93</v>
+      </c>
+      <c r="K14" s="2">
+        <v>95</v>
+      </c>
+      <c r="L14" s="2">
+        <v>95</v>
+      </c>
+      <c r="M14" s="2">
+        <v>94</v>
+      </c>
+      <c r="N14" s="2">
+        <v>92</v>
+      </c>
+      <c r="O14" s="2">
+        <v>93</v>
+      </c>
+      <c r="P14" s="2">
+        <f>J14*0.4+K14*0.1+L14*0.1+M14*0.1+N14*0.1+O14*0.2</f>
+        <v>93.4</v>
+      </c>
+      <c r="R14" s="2">
+        <f>P14*0.5+H14*0.5</f>
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:18">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2">
+        <v>96</v>
+      </c>
+      <c r="K15" s="2">
+        <v>96</v>
+      </c>
+      <c r="L15" s="2">
+        <v>95</v>
+      </c>
+      <c r="M15" s="2">
+        <v>94</v>
+      </c>
+      <c r="N15" s="2">
+        <v>93</v>
+      </c>
+      <c r="O15" s="2">
+        <v>96</v>
+      </c>
+      <c r="P15" s="2">
+        <f>J15*0.4+K15*0.1+L15*0.1+M15*0.1+N15*0.1+O15*0.2</f>
+        <v>95.4</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2">
+        <f>P15*0.5+H15*0.5</f>
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:18">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2">
+        <v>96</v>
+      </c>
+      <c r="K16" s="2">
+        <v>96</v>
+      </c>
+      <c r="L16" s="2">
+        <v>97</v>
+      </c>
+      <c r="M16" s="2">
+        <v>93</v>
+      </c>
+      <c r="N16" s="2">
+        <v>94</v>
+      </c>
+      <c r="O16" s="2">
+        <v>96</v>
+      </c>
+      <c r="P16" s="2">
+        <f>J16*0.4+K16*0.1+L16*0.1+M16*0.1+N16*0.1+O16*0.2</f>
+        <v>95.6</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
+        <f>P16*0.5+H16*0.5</f>
+        <v>94.8</v>
       </c>
     </row>
   </sheetData>

--- a/绩效评定/小组绩效评定表.xlsx
+++ b/绩效评定/小组绩效评定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>计划阶段</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>翻转01</t>
+  </si>
+  <si>
+    <t>翻转02</t>
   </si>
 </sst>
 </file>
@@ -91,8 +94,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -121,9 +124,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,29 +166,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +186,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,38 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -227,14 +223,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -250,14 +238,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,13 +275,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,169 +377,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,13 +469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,15 +495,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,21 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,16 +546,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:R16"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1692,6 +1695,331 @@
         <v>94.8</v>
       </c>
     </row>
+    <row r="19" ht="15.6" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="15.6" spans="1:18">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" ref="H21:H25" si="2">SUM(B21:G21)</f>
+        <v>91</v>
+      </c>
+      <c r="J21" s="2">
+        <v>95</v>
+      </c>
+      <c r="K21" s="2">
+        <v>95</v>
+      </c>
+      <c r="L21" s="2">
+        <v>95</v>
+      </c>
+      <c r="M21" s="2">
+        <v>93</v>
+      </c>
+      <c r="N21" s="2">
+        <v>96</v>
+      </c>
+      <c r="O21" s="2">
+        <f>(O22+O23+O24+O25)/4</f>
+        <v>95.75</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" ref="P21:P25" si="3">J21*0.4+K21*0.1+L21*0.1+M21*0.1+N21*0.1+O21*0.2</f>
+        <v>95.05</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" ref="R21:R25" si="4">P21*0.5+H21*0.5</f>
+        <v>93.025</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:18">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="J22" s="2">
+        <v>96</v>
+      </c>
+      <c r="K22" s="2">
+        <v>97</v>
+      </c>
+      <c r="L22" s="2">
+        <v>96</v>
+      </c>
+      <c r="M22" s="2">
+        <v>93</v>
+      </c>
+      <c r="N22" s="2">
+        <v>94</v>
+      </c>
+      <c r="O22" s="2">
+        <v>95</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="3"/>
+        <v>95.4</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="4"/>
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="23" ht="15.6" spans="1:18">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2">
+        <v>10</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="J23" s="2">
+        <v>95</v>
+      </c>
+      <c r="K23" s="2">
+        <v>98</v>
+      </c>
+      <c r="L23" s="2">
+        <v>95</v>
+      </c>
+      <c r="M23" s="2">
+        <v>96</v>
+      </c>
+      <c r="N23" s="2">
+        <v>97</v>
+      </c>
+      <c r="O23" s="2">
+        <v>96</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="3"/>
+        <v>95.8</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="4"/>
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:18">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>9</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2">
+        <v>94</v>
+      </c>
+      <c r="K24" s="2">
+        <v>96</v>
+      </c>
+      <c r="L24" s="2">
+        <v>95</v>
+      </c>
+      <c r="M24" s="2">
+        <v>94</v>
+      </c>
+      <c r="N24" s="2">
+        <v>95</v>
+      </c>
+      <c r="O24" s="2">
+        <v>96</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="3"/>
+        <v>94.8</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2">
+        <f t="shared" si="4"/>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:18">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2">
+        <v>94</v>
+      </c>
+      <c r="K25" s="2">
+        <v>98</v>
+      </c>
+      <c r="L25" s="2">
+        <v>97</v>
+      </c>
+      <c r="M25" s="2">
+        <v>96</v>
+      </c>
+      <c r="N25" s="2">
+        <v>95</v>
+      </c>
+      <c r="O25" s="2">
+        <v>96</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="3"/>
+        <v>95.4</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2">
+        <f t="shared" si="4"/>
+        <v>94.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/绩效评定/小组绩效评定表.xlsx
+++ b/绩效评定/小组绩效评定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
   <si>
     <t>计划阶段</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>翻转02</t>
+  </si>
+  <si>
+    <t>翻转03</t>
   </si>
 </sst>
 </file>
@@ -93,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -122,9 +125,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,16 +140,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,13 +166,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,14 +189,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +216,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -237,15 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +261,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,13 +278,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,169 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,21 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -495,6 +483,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,8 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,11 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2020,6 +2023,331 @@
         <v>94.2</v>
       </c>
     </row>
+    <row r="27" ht="15.6" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:18">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2">
+        <v>10</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" ref="H29:H33" si="5">SUM(B29:G29)</f>
+        <v>91</v>
+      </c>
+      <c r="J29" s="2">
+        <v>93</v>
+      </c>
+      <c r="K29" s="2">
+        <v>95</v>
+      </c>
+      <c r="L29" s="2">
+        <v>95</v>
+      </c>
+      <c r="M29" s="2">
+        <v>93</v>
+      </c>
+      <c r="N29" s="2">
+        <v>96</v>
+      </c>
+      <c r="O29" s="2">
+        <f>(O30+O31+O32+O33)/4</f>
+        <v>95</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" ref="P29:P33" si="6">J29*0.4+K29*0.1+L29*0.1+M29*0.1+N29*0.1+O29*0.2</f>
+        <v>94.1</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" ref="R29:R33" si="7">P29*0.5+H29*0.5</f>
+        <v>92.55</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:18">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="2">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="J30" s="2">
+        <v>95</v>
+      </c>
+      <c r="K30" s="2">
+        <v>97</v>
+      </c>
+      <c r="L30" s="2">
+        <v>96</v>
+      </c>
+      <c r="M30" s="2">
+        <v>93</v>
+      </c>
+      <c r="N30" s="2">
+        <v>94</v>
+      </c>
+      <c r="O30" s="2">
+        <v>94</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="6"/>
+        <v>94.8</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="7"/>
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:18">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="J31" s="2">
+        <v>95</v>
+      </c>
+      <c r="K31" s="2">
+        <v>98</v>
+      </c>
+      <c r="L31" s="2">
+        <v>98</v>
+      </c>
+      <c r="M31" s="2">
+        <v>96</v>
+      </c>
+      <c r="N31" s="2">
+        <v>97</v>
+      </c>
+      <c r="O31" s="2">
+        <v>94</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="6"/>
+        <v>95.7</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="7"/>
+        <v>92.85</v>
+      </c>
+    </row>
+    <row r="32" ht="15.6" spans="1:18">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2">
+        <v>95</v>
+      </c>
+      <c r="K32" s="2">
+        <v>96</v>
+      </c>
+      <c r="L32" s="2">
+        <v>95</v>
+      </c>
+      <c r="M32" s="2">
+        <v>94</v>
+      </c>
+      <c r="N32" s="2">
+        <v>95</v>
+      </c>
+      <c r="O32" s="2">
+        <v>95</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:18">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
+        <v>10</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2">
+        <v>97</v>
+      </c>
+      <c r="K33" s="2">
+        <v>98</v>
+      </c>
+      <c r="L33" s="2">
+        <v>97</v>
+      </c>
+      <c r="M33" s="2">
+        <v>96</v>
+      </c>
+      <c r="N33" s="2">
+        <v>99</v>
+      </c>
+      <c r="O33" s="2">
+        <v>97</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="6"/>
+        <v>97.2</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2">
+        <f t="shared" si="7"/>
+        <v>95.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/绩效评定/小组绩效评定表.xlsx
+++ b/绩效评定/小组绩效评定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
   <si>
     <t>计划阶段</t>
   </si>
@@ -90,6 +90,9 @@
   <si>
     <t>翻转03</t>
   </si>
+  <si>
+    <t>翻转04</t>
+  </si>
 </sst>
 </file>
 
@@ -98,8 +101,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,6 +129,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -133,7 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,25 +173,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,10 +217,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,15 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,36 +271,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,91 +281,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,91 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +472,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,15 +536,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,49 +567,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:R33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2348,6 +2351,331 @@
         <v>95.1</v>
       </c>
     </row>
+    <row r="35" ht="15.6" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:18">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:18">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2">
+        <v>9</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" ref="H37:H41" si="8">SUM(B37:G37)</f>
+        <v>89</v>
+      </c>
+      <c r="J37" s="2">
+        <v>96</v>
+      </c>
+      <c r="K37" s="2">
+        <v>94</v>
+      </c>
+      <c r="L37" s="2">
+        <v>95</v>
+      </c>
+      <c r="M37" s="2">
+        <v>92</v>
+      </c>
+      <c r="N37" s="2">
+        <v>95</v>
+      </c>
+      <c r="O37" s="2">
+        <f>(O38+O39+O40+O41)/4</f>
+        <v>95</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" ref="P37:P41" si="9">J37*0.4+K37*0.1+L37*0.1+M37*0.1+N37*0.1+O37*0.2</f>
+        <v>95</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" ref="R37:R41" si="10">P37*0.5+H37*0.5</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" ht="15.6" spans="1:18">
+      <c r="A38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2">
+        <v>10</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="J38" s="2">
+        <v>96</v>
+      </c>
+      <c r="K38" s="2">
+        <v>97</v>
+      </c>
+      <c r="L38" s="2">
+        <v>96</v>
+      </c>
+      <c r="M38" s="2">
+        <v>96</v>
+      </c>
+      <c r="N38" s="2">
+        <v>96</v>
+      </c>
+      <c r="O38" s="2">
+        <v>94</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="9"/>
+        <v>95.7</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="10"/>
+        <v>93.35</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="1:18">
+      <c r="A39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2">
+        <v>10</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="J39" s="2">
+        <v>96</v>
+      </c>
+      <c r="K39" s="2">
+        <v>97</v>
+      </c>
+      <c r="L39" s="2">
+        <v>98</v>
+      </c>
+      <c r="M39" s="2">
+        <v>96</v>
+      </c>
+      <c r="N39" s="2">
+        <v>97</v>
+      </c>
+      <c r="O39" s="2">
+        <v>96</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="9"/>
+        <v>96.4</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="10"/>
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="40" ht="15.6" spans="1:18">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="2">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
+        <v>94</v>
+      </c>
+      <c r="K40" s="2">
+        <v>96</v>
+      </c>
+      <c r="L40" s="2">
+        <v>95</v>
+      </c>
+      <c r="M40" s="2">
+        <v>94</v>
+      </c>
+      <c r="N40" s="2">
+        <v>95</v>
+      </c>
+      <c r="O40" s="2">
+        <v>95</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="9"/>
+        <v>94.6</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2">
+        <f t="shared" si="10"/>
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="41" ht="15.6" spans="1:18">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
+        <v>95</v>
+      </c>
+      <c r="K41" s="2">
+        <v>98</v>
+      </c>
+      <c r="L41" s="2">
+        <v>97</v>
+      </c>
+      <c r="M41" s="2">
+        <v>98</v>
+      </c>
+      <c r="N41" s="2">
+        <v>99</v>
+      </c>
+      <c r="O41" s="2">
+        <v>95</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="9"/>
+        <v>96.2</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2">
+        <f t="shared" si="10"/>
+        <v>95.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/绩效评定/小组绩效评定表.xlsx
+++ b/绩效评定/小组绩效评定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="27">
   <si>
     <t>计划阶段</t>
   </si>
@@ -93,16 +93,19 @@
   <si>
     <t>翻转04</t>
   </si>
+  <si>
+    <t>需求分析</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -129,7 +132,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,6 +140,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,21 +167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -172,30 +174,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,16 +205,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -250,17 +237,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +259,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,6 +281,120 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -287,19 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,13 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,37 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,79 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +475,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -486,56 +504,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,9 +534,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2676,6 +2679,331 @@
         <v>95.6</v>
       </c>
     </row>
+    <row r="43" ht="15.6" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" ht="15.6" spans="1:18">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="15.6" spans="1:18">
+      <c r="A45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="2">
+        <v>36</v>
+      </c>
+      <c r="C45" s="2">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2">
+        <v>10</v>
+      </c>
+      <c r="F45" s="2">
+        <v>9</v>
+      </c>
+      <c r="G45" s="2">
+        <v>10</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" ref="H45:H49" si="11">SUM(B45:G45)</f>
+        <v>91</v>
+      </c>
+      <c r="J45" s="2">
+        <v>95</v>
+      </c>
+      <c r="K45" s="2">
+        <v>95</v>
+      </c>
+      <c r="L45" s="2">
+        <v>95</v>
+      </c>
+      <c r="M45" s="2">
+        <v>93</v>
+      </c>
+      <c r="N45" s="2">
+        <v>96</v>
+      </c>
+      <c r="O45" s="2">
+        <f>(O46+O47+O48+O49)/4</f>
+        <v>95.75</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" ref="P45:P49" si="12">J45*0.4+K45*0.1+L45*0.1+M45*0.1+N45*0.1+O45*0.2</f>
+        <v>95.05</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" ref="R45:R49" si="13">P45*0.5+H45*0.5</f>
+        <v>93.025</v>
+      </c>
+    </row>
+    <row r="46" ht="15.6" spans="1:18">
+      <c r="A46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="2">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2">
+        <v>9</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8</v>
+      </c>
+      <c r="F46" s="2">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2">
+        <v>9</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="J46" s="2">
+        <v>96</v>
+      </c>
+      <c r="K46" s="2">
+        <v>97</v>
+      </c>
+      <c r="L46" s="2">
+        <v>96</v>
+      </c>
+      <c r="M46" s="2">
+        <v>93</v>
+      </c>
+      <c r="N46" s="2">
+        <v>94</v>
+      </c>
+      <c r="O46" s="2">
+        <v>95</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="12"/>
+        <v>95.4</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="13"/>
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="1:18">
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="2">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2">
+        <v>10</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="J47" s="2">
+        <v>95</v>
+      </c>
+      <c r="K47" s="2">
+        <v>98</v>
+      </c>
+      <c r="L47" s="2">
+        <v>95</v>
+      </c>
+      <c r="M47" s="2">
+        <v>96</v>
+      </c>
+      <c r="N47" s="2">
+        <v>97</v>
+      </c>
+      <c r="O47" s="2">
+        <v>96</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="12"/>
+        <v>95.8</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="13"/>
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="1:18">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2">
+        <v>10</v>
+      </c>
+      <c r="F48" s="2">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
+        <v>9</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
+        <v>94</v>
+      </c>
+      <c r="K48" s="2">
+        <v>96</v>
+      </c>
+      <c r="L48" s="2">
+        <v>95</v>
+      </c>
+      <c r="M48" s="2">
+        <v>94</v>
+      </c>
+      <c r="N48" s="2">
+        <v>95</v>
+      </c>
+      <c r="O48" s="2">
+        <v>96</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="12"/>
+        <v>94.8</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2">
+        <f t="shared" si="13"/>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="49" ht="15.6" spans="1:18">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="2">
+        <v>37</v>
+      </c>
+      <c r="C49" s="2">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2">
+        <v>10</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="11"/>
+        <v>93</v>
+      </c>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2">
+        <v>94</v>
+      </c>
+      <c r="K49" s="2">
+        <v>98</v>
+      </c>
+      <c r="L49" s="2">
+        <v>97</v>
+      </c>
+      <c r="M49" s="2">
+        <v>96</v>
+      </c>
+      <c r="N49" s="2">
+        <v>95</v>
+      </c>
+      <c r="O49" s="2">
+        <v>96</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="12"/>
+        <v>95.4</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2">
+        <f t="shared" si="13"/>
+        <v>94.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/绩效评定/小组绩效评定表.xlsx
+++ b/绩效评定/小组绩效评定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
   <si>
     <t>计划阶段</t>
   </si>
@@ -96,6 +96,9 @@
   <si>
     <t>需求分析</t>
   </si>
+  <si>
+    <t>翻转05</t>
+  </si>
 </sst>
 </file>
 
@@ -103,8 +106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -132,13 +135,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -146,22 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,11 +155,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,15 +192,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -238,17 +234,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,14 +257,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +299,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +359,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,43 +425,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,79 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +478,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,21 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,17 +531,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -567,11 +553,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,10 +1049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3004,6 +3007,331 @@
         <v>94.2</v>
       </c>
     </row>
+    <row r="51" ht="15.6" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" ht="15.6" spans="1:18">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="15.6" spans="1:18">
+      <c r="A53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="2">
+        <v>36</v>
+      </c>
+      <c r="C53" s="2">
+        <v>18</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9</v>
+      </c>
+      <c r="E53" s="2">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2">
+        <v>10</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" ref="H53:H57" si="14">SUM(B53:G53)</f>
+        <v>91</v>
+      </c>
+      <c r="J53" s="2">
+        <v>93</v>
+      </c>
+      <c r="K53" s="2">
+        <v>95</v>
+      </c>
+      <c r="L53" s="2">
+        <v>95</v>
+      </c>
+      <c r="M53" s="2">
+        <v>93</v>
+      </c>
+      <c r="N53" s="2">
+        <v>96</v>
+      </c>
+      <c r="O53" s="2">
+        <f>(O54+O55+O56+O57)/4</f>
+        <v>95</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" ref="P53:P57" si="15">J53*0.4+K53*0.1+L53*0.1+M53*0.1+N53*0.1+O53*0.2</f>
+        <v>94.1</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" ref="R53:R57" si="16">P53*0.5+H53*0.5</f>
+        <v>92.55</v>
+      </c>
+    </row>
+    <row r="54" ht="15.6" spans="1:18">
+      <c r="A54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="2">
+        <v>38</v>
+      </c>
+      <c r="C54" s="2">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2">
+        <v>8</v>
+      </c>
+      <c r="G54" s="2">
+        <v>9</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="J54" s="2">
+        <v>95</v>
+      </c>
+      <c r="K54" s="2">
+        <v>97</v>
+      </c>
+      <c r="L54" s="2">
+        <v>96</v>
+      </c>
+      <c r="M54" s="2">
+        <v>93</v>
+      </c>
+      <c r="N54" s="2">
+        <v>94</v>
+      </c>
+      <c r="O54" s="2">
+        <v>94</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="15"/>
+        <v>94.8</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="16"/>
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="55" ht="15.6" spans="1:18">
+      <c r="A55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="2">
+        <v>36</v>
+      </c>
+      <c r="C55" s="2">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2">
+        <v>9</v>
+      </c>
+      <c r="G55" s="2">
+        <v>10</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="J55" s="2">
+        <v>95</v>
+      </c>
+      <c r="K55" s="2">
+        <v>98</v>
+      </c>
+      <c r="L55" s="2">
+        <v>98</v>
+      </c>
+      <c r="M55" s="2">
+        <v>96</v>
+      </c>
+      <c r="N55" s="2">
+        <v>97</v>
+      </c>
+      <c r="O55" s="2">
+        <v>94</v>
+      </c>
+      <c r="P55" s="2">
+        <f t="shared" si="15"/>
+        <v>95.7</v>
+      </c>
+      <c r="R55" s="2">
+        <f t="shared" si="16"/>
+        <v>92.85</v>
+      </c>
+    </row>
+    <row r="56" ht="15.6" spans="1:18">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="2">
+        <v>36</v>
+      </c>
+      <c r="C56" s="2">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2">
+        <v>9</v>
+      </c>
+      <c r="G56" s="2">
+        <v>9</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="14"/>
+        <v>89</v>
+      </c>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2">
+        <v>95</v>
+      </c>
+      <c r="K56" s="2">
+        <v>96</v>
+      </c>
+      <c r="L56" s="2">
+        <v>95</v>
+      </c>
+      <c r="M56" s="2">
+        <v>94</v>
+      </c>
+      <c r="N56" s="2">
+        <v>95</v>
+      </c>
+      <c r="O56" s="2">
+        <v>95</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="15"/>
+        <v>95</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2">
+        <f t="shared" si="16"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" ht="15.6" spans="1:18">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="2">
+        <v>36</v>
+      </c>
+      <c r="C57" s="2">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2">
+        <v>9</v>
+      </c>
+      <c r="E57" s="2">
+        <v>10</v>
+      </c>
+      <c r="F57" s="2">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2">
+        <v>10</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="14"/>
+        <v>93</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2">
+        <v>97</v>
+      </c>
+      <c r="K57" s="2">
+        <v>98</v>
+      </c>
+      <c r="L57" s="2">
+        <v>97</v>
+      </c>
+      <c r="M57" s="2">
+        <v>96</v>
+      </c>
+      <c r="N57" s="2">
+        <v>99</v>
+      </c>
+      <c r="O57" s="2">
+        <v>97</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="15"/>
+        <v>97.2</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2">
+        <f t="shared" si="16"/>
+        <v>95.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/绩效评定/小组绩效评定表.xlsx
+++ b/绩效评定/小组绩效评定表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="29">
   <si>
     <t>计划阶段</t>
   </si>
@@ -99,6 +99,9 @@
   <si>
     <t>翻转05</t>
   </si>
+  <si>
+    <t>翻转06</t>
+  </si>
 </sst>
 </file>
 
@@ -107,8 +110,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -134,8 +137,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,21 +167,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,6 +184,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,18 +206,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,6 +245,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -241,38 +268,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,7 +290,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +308,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,37 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,61 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,55 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,11 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +510,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,28 +573,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,16 +599,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,115 +617,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -3332,6 +3335,331 @@
         <v>95.1</v>
       </c>
     </row>
+    <row r="59" ht="15.6" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" ht="15.6" spans="1:18">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="15.6" spans="1:18">
+      <c r="A61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="2">
+        <v>37</v>
+      </c>
+      <c r="C61" s="2">
+        <v>18</v>
+      </c>
+      <c r="D61" s="2">
+        <v>9</v>
+      </c>
+      <c r="E61" s="2">
+        <v>10</v>
+      </c>
+      <c r="F61" s="2">
+        <v>9</v>
+      </c>
+      <c r="G61" s="2">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" ref="H61:H65" si="17">SUM(B61:G61)</f>
+        <v>93</v>
+      </c>
+      <c r="J61" s="2">
+        <v>95</v>
+      </c>
+      <c r="K61" s="2">
+        <v>97</v>
+      </c>
+      <c r="L61" s="2">
+        <v>95</v>
+      </c>
+      <c r="M61" s="2">
+        <v>95</v>
+      </c>
+      <c r="N61" s="2">
+        <v>96</v>
+      </c>
+      <c r="O61" s="2">
+        <f>(O62+O63+O64+O65)/4</f>
+        <v>95.75</v>
+      </c>
+      <c r="P61" s="2">
+        <f t="shared" ref="P61:P65" si="18">J61*0.4+K61*0.1+L61*0.1+M61*0.1+N61*0.1+O61*0.2</f>
+        <v>95.45</v>
+      </c>
+      <c r="R61" s="2">
+        <f t="shared" ref="R61:R65" si="19">P61*0.5+H61*0.5</f>
+        <v>94.225</v>
+      </c>
+    </row>
+    <row r="62" ht="15.6" spans="1:18">
+      <c r="A62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="2">
+        <v>38</v>
+      </c>
+      <c r="C62" s="2">
+        <v>18</v>
+      </c>
+      <c r="D62" s="2">
+        <v>9</v>
+      </c>
+      <c r="E62" s="2">
+        <v>8</v>
+      </c>
+      <c r="F62" s="2">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2">
+        <v>9</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="17"/>
+        <v>92</v>
+      </c>
+      <c r="J62" s="2">
+        <v>96</v>
+      </c>
+      <c r="K62" s="2">
+        <v>97</v>
+      </c>
+      <c r="L62" s="2">
+        <v>96</v>
+      </c>
+      <c r="M62" s="2">
+        <v>95</v>
+      </c>
+      <c r="N62" s="2">
+        <v>94</v>
+      </c>
+      <c r="O62" s="2">
+        <v>95</v>
+      </c>
+      <c r="P62" s="2">
+        <f t="shared" si="18"/>
+        <v>95.6</v>
+      </c>
+      <c r="R62" s="2">
+        <f t="shared" si="19"/>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="63" ht="15.6" spans="1:18">
+      <c r="A63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="2">
+        <v>39</v>
+      </c>
+      <c r="C63" s="2">
+        <v>19</v>
+      </c>
+      <c r="D63" s="2">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2">
+        <v>9</v>
+      </c>
+      <c r="G63" s="2">
+        <v>10</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="J63" s="2">
+        <v>95</v>
+      </c>
+      <c r="K63" s="2">
+        <v>98</v>
+      </c>
+      <c r="L63" s="2">
+        <v>99</v>
+      </c>
+      <c r="M63" s="2">
+        <v>96</v>
+      </c>
+      <c r="N63" s="2">
+        <v>97</v>
+      </c>
+      <c r="O63" s="2">
+        <v>96</v>
+      </c>
+      <c r="P63" s="2">
+        <f t="shared" si="18"/>
+        <v>96.2</v>
+      </c>
+      <c r="R63" s="2">
+        <f t="shared" si="19"/>
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="64" ht="15.6" spans="1:18">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="2">
+        <v>36</v>
+      </c>
+      <c r="C64" s="2">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2">
+        <v>10</v>
+      </c>
+      <c r="F64" s="2">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>9</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="17"/>
+        <v>92</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2">
+        <v>94</v>
+      </c>
+      <c r="K64" s="2">
+        <v>96</v>
+      </c>
+      <c r="L64" s="2">
+        <v>95</v>
+      </c>
+      <c r="M64" s="2">
+        <v>94</v>
+      </c>
+      <c r="N64" s="2">
+        <v>95</v>
+      </c>
+      <c r="O64" s="2">
+        <v>96</v>
+      </c>
+      <c r="P64" s="2">
+        <f t="shared" si="18"/>
+        <v>94.8</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2">
+        <f t="shared" si="19"/>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="65" ht="15.6" spans="1:18">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="2">
+        <v>37</v>
+      </c>
+      <c r="C65" s="2">
+        <v>18</v>
+      </c>
+      <c r="D65" s="2">
+        <v>8</v>
+      </c>
+      <c r="E65" s="2">
+        <v>10</v>
+      </c>
+      <c r="F65" s="2">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2">
+        <v>10</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="17"/>
+        <v>93</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2">
+        <v>93</v>
+      </c>
+      <c r="K65" s="2">
+        <v>98</v>
+      </c>
+      <c r="L65" s="2">
+        <v>97</v>
+      </c>
+      <c r="M65" s="2">
+        <v>96</v>
+      </c>
+      <c r="N65" s="2">
+        <v>95</v>
+      </c>
+      <c r="O65" s="2">
+        <v>96</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" si="18"/>
+        <v>95</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2">
+        <f t="shared" si="19"/>
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/绩效评定/小组绩效评定表.xlsx
+++ b/绩效评定/小组绩效评定表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
   <si>
     <t>计划阶段</t>
   </si>
@@ -102,16 +102,19 @@
   <si>
     <t>翻转06</t>
   </si>
+  <si>
+    <t>需求变更</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -137,21 +140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -166,6 +154,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -173,9 +169,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,22 +187,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,8 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +249,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,8 +269,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,13 +293,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +365,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,19 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,109 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,17 +513,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,16 +573,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,16 +602,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,115 +620,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,31 +1055,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="U69" sqref="U69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.66666666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.8611111111111" customWidth="1"/>
-    <col min="3" max="3" width="12.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="12.8611111111111" customWidth="1"/>
+    <col min="2" max="2" width="11.8583333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.8583333333333" customWidth="1"/>
     <col min="5" max="5" width="19.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:1">
+    <row r="1" ht="15.75" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:18">
+    <row r="2" ht="15.75" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:18">
+    <row r="3" ht="15.75" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:18">
+    <row r="4" ht="15.75" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:18">
+    <row r="5" ht="15.75" spans="1:18">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:18">
+    <row r="6" ht="15.75" spans="1:18">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:18">
+    <row r="7" ht="15.75" spans="1:18">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1385,12 +1388,12 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:1">
+    <row r="10" ht="15.75" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:18">
+    <row r="11" ht="15.75" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:18">
+    <row r="12" ht="15.75" spans="1:18">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>92.15</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:18">
+    <row r="13" ht="15.75" spans="1:18">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>90.75</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:18">
+    <row r="14" ht="15.75" spans="1:18">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:18">
+    <row r="15" ht="15.75" spans="1:18">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>95.7</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:18">
+    <row r="16" ht="15.75" spans="1:18">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1710,12 +1713,12 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:1">
+    <row r="19" ht="15.75" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:18">
+    <row r="20" ht="15.75" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:18">
+    <row r="21" ht="15.75" spans="1:18">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>93.025</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:18">
+    <row r="22" ht="15.75" spans="1:18">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:18">
+    <row r="23" ht="15.75" spans="1:18">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:18">
+    <row r="24" ht="15.75" spans="1:18">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:18">
+    <row r="25" ht="15.75" spans="1:18">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2035,12 +2038,12 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:1">
+    <row r="27" ht="15.75" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:18">
+    <row r="28" ht="15.75" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:18">
+    <row r="29" ht="15.75" spans="1:18">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>92.55</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:18">
+    <row r="30" ht="15.75" spans="1:18">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:18">
+    <row r="31" ht="15.75" spans="1:18">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>92.85</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:18">
+    <row r="32" ht="15.75" spans="1:18">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:18">
+    <row r="33" ht="15.75" spans="1:18">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -2360,12 +2363,12 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:1">
+    <row r="35" ht="15.75" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:18">
+    <row r="36" ht="15.75" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="1:18">
+    <row r="37" ht="15.75" spans="1:18">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:18">
+    <row r="38" ht="15.75" spans="1:18">
       <c r="A38" s="2" t="s">
         <v>18</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>93.35</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:18">
+    <row r="39" ht="15.75" spans="1:18">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="1:18">
+    <row r="40" ht="15.75" spans="1:18">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="1:18">
+    <row r="41" ht="15.75" spans="1:18">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2685,12 +2688,12 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="1:1">
+    <row r="43" ht="15.75" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="1:18">
+    <row r="44" ht="15.75" spans="1:18">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="1:18">
+    <row r="45" ht="15.75" spans="1:18">
       <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>93.025</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:18">
+    <row r="46" ht="15.75" spans="1:18">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="1:18">
+    <row r="47" ht="15.75" spans="1:18">
       <c r="A47" s="2" t="s">
         <v>19</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="1:18">
+    <row r="48" ht="15.75" spans="1:18">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="1:18">
+    <row r="49" ht="15.75" spans="1:18">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -3010,12 +3013,12 @@
         <v>94.2</v>
       </c>
     </row>
-    <row r="51" ht="15.6" spans="1:1">
+    <row r="51" ht="15.75" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" ht="15.6" spans="1:18">
+    <row r="52" ht="15.75" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" ht="15.6" spans="1:18">
+    <row r="53" ht="15.75" spans="1:18">
       <c r="A53" s="2" t="s">
         <v>17</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>92.55</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="1:18">
+    <row r="54" ht="15.75" spans="1:18">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="55" ht="15.6" spans="1:18">
+    <row r="55" ht="15.75" spans="1:18">
       <c r="A55" s="2" t="s">
         <v>19</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>92.85</v>
       </c>
     </row>
-    <row r="56" ht="15.6" spans="1:18">
+    <row r="56" ht="15.75" spans="1:18">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="57" ht="15.6" spans="1:18">
+    <row r="57" ht="15.75" spans="1:18">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -3335,12 +3338,12 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="59" ht="15.6" spans="1:1">
+    <row r="59" ht="15.75" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" ht="15.6" spans="1:18">
+    <row r="60" ht="15.75" spans="1:18">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -3390,7 +3393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" ht="15.6" spans="1:18">
+    <row r="61" ht="15.75" spans="1:18">
       <c r="A61" s="2" t="s">
         <v>17</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>94.225</v>
       </c>
     </row>
-    <row r="62" ht="15.6" spans="1:18">
+    <row r="62" ht="15.75" spans="1:18">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="63" ht="15.6" spans="1:18">
+    <row r="63" ht="15.75" spans="1:18">
       <c r="A63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="64" ht="15.6" spans="1:18">
+    <row r="64" ht="15.75" spans="1:18">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="1:18">
+    <row r="65" ht="15.75" spans="1:18">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -3658,6 +3661,331 @@
       <c r="R65" s="2">
         <f t="shared" si="19"/>
         <v>94</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" spans="1:18">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="1:18">
+      <c r="A69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="2">
+        <v>38</v>
+      </c>
+      <c r="C69" s="2">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2">
+        <v>10</v>
+      </c>
+      <c r="F69" s="2">
+        <v>9</v>
+      </c>
+      <c r="G69" s="2">
+        <v>10</v>
+      </c>
+      <c r="H69" s="2">
+        <f>SUM(B69:G69)</f>
+        <v>95</v>
+      </c>
+      <c r="J69" s="2">
+        <v>95</v>
+      </c>
+      <c r="K69" s="2">
+        <v>95</v>
+      </c>
+      <c r="L69" s="2">
+        <v>95</v>
+      </c>
+      <c r="M69" s="2">
+        <v>93</v>
+      </c>
+      <c r="N69" s="2">
+        <v>96</v>
+      </c>
+      <c r="O69" s="2">
+        <f>(O70+O71+O72+O73)/4</f>
+        <v>95.5</v>
+      </c>
+      <c r="P69" s="2">
+        <f t="shared" ref="P69:P73" si="20">J69*0.4+K69*0.1+L69*0.1+M69*0.1+N69*0.1+O69*0.2</f>
+        <v>95</v>
+      </c>
+      <c r="R69" s="2">
+        <f t="shared" ref="R69:R73" si="21">P69*0.5+H69*0.5</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" spans="1:18">
+      <c r="A70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2">
+        <v>38</v>
+      </c>
+      <c r="C70" s="2">
+        <v>18</v>
+      </c>
+      <c r="D70" s="2">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8</v>
+      </c>
+      <c r="F70" s="2">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2">
+        <v>9</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" ref="H69:H73" si="22">SUM(B70:G70)</f>
+        <v>92</v>
+      </c>
+      <c r="J70" s="2">
+        <v>96</v>
+      </c>
+      <c r="K70" s="2">
+        <v>97</v>
+      </c>
+      <c r="L70" s="2">
+        <v>96</v>
+      </c>
+      <c r="M70" s="2">
+        <v>93</v>
+      </c>
+      <c r="N70" s="2">
+        <v>94</v>
+      </c>
+      <c r="O70" s="2">
+        <v>95</v>
+      </c>
+      <c r="P70" s="2">
+        <f t="shared" si="20"/>
+        <v>95.4</v>
+      </c>
+      <c r="R70" s="2">
+        <f t="shared" si="21"/>
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:18">
+      <c r="A71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="2">
+        <v>35</v>
+      </c>
+      <c r="C71" s="2">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2">
+        <v>9</v>
+      </c>
+      <c r="G71" s="2">
+        <v>10</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="22"/>
+        <v>91</v>
+      </c>
+      <c r="J71" s="2">
+        <v>95</v>
+      </c>
+      <c r="K71" s="2">
+        <v>98</v>
+      </c>
+      <c r="L71" s="2">
+        <v>95</v>
+      </c>
+      <c r="M71" s="2">
+        <v>96</v>
+      </c>
+      <c r="N71" s="2">
+        <v>97</v>
+      </c>
+      <c r="O71" s="2">
+        <v>96</v>
+      </c>
+      <c r="P71" s="2">
+        <f t="shared" si="20"/>
+        <v>95.8</v>
+      </c>
+      <c r="R71" s="2">
+        <f t="shared" si="21"/>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" spans="1:18">
+      <c r="A72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="2">
+        <v>36</v>
+      </c>
+      <c r="C72" s="2">
+        <v>18</v>
+      </c>
+      <c r="D72" s="2">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2">
+        <v>9</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="22"/>
+        <v>92</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2">
+        <v>94</v>
+      </c>
+      <c r="K72" s="2">
+        <v>96</v>
+      </c>
+      <c r="L72" s="2">
+        <v>95</v>
+      </c>
+      <c r="M72" s="2">
+        <v>94</v>
+      </c>
+      <c r="N72" s="2">
+        <v>95</v>
+      </c>
+      <c r="O72" s="2">
+        <v>95</v>
+      </c>
+      <c r="P72" s="2">
+        <f t="shared" si="20"/>
+        <v>94.6</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2">
+        <f t="shared" si="21"/>
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" spans="1:18">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="2">
+        <v>37</v>
+      </c>
+      <c r="C73" s="2">
+        <v>18</v>
+      </c>
+      <c r="D73" s="2">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2">
+        <v>10</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="22"/>
+        <v>93</v>
+      </c>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2">
+        <v>94</v>
+      </c>
+      <c r="K73" s="2">
+        <v>98</v>
+      </c>
+      <c r="L73" s="2">
+        <v>97</v>
+      </c>
+      <c r="M73" s="2">
+        <v>96</v>
+      </c>
+      <c r="N73" s="2">
+        <v>95</v>
+      </c>
+      <c r="O73" s="2">
+        <v>96</v>
+      </c>
+      <c r="P73" s="2">
+        <f t="shared" si="20"/>
+        <v>95.4</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2">
+        <f t="shared" si="21"/>
+        <v>94.2</v>
       </c>
     </row>
   </sheetData>

--- a/绩效评定/小组绩效评定表.xlsx
+++ b/绩效评定/小组绩效评定表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="31">
   <si>
     <t>计划阶段</t>
   </si>
@@ -105,16 +105,19 @@
   <si>
     <t>需求变更</t>
   </si>
+  <si>
+    <t>项目总结</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -141,7 +144,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,49 +186,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,9 +209,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,16 +249,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,23 +279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,31 +296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,13 +308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +332,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +386,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,37 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,43 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,36 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,8 +508,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,15 +564,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -584,16 +572,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="U69" sqref="U69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3988,6 +3991,330 @@
         <v>94.2</v>
       </c>
     </row>
+    <row r="75" ht="15.75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" spans="1:18">
+      <c r="A76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" spans="1:18">
+      <c r="A77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2">
+        <v>38</v>
+      </c>
+      <c r="C77" s="2">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2">
+        <v>10</v>
+      </c>
+      <c r="F77" s="2">
+        <v>9</v>
+      </c>
+      <c r="G77" s="2">
+        <v>10</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" ref="H77:H81" si="23">SUM(B77:G77)</f>
+        <v>95</v>
+      </c>
+      <c r="J77" s="2">
+        <v>95</v>
+      </c>
+      <c r="K77" s="2">
+        <v>97</v>
+      </c>
+      <c r="L77" s="2">
+        <v>95</v>
+      </c>
+      <c r="M77" s="2">
+        <v>94</v>
+      </c>
+      <c r="N77" s="2">
+        <v>94</v>
+      </c>
+      <c r="O77" s="2">
+        <v>95</v>
+      </c>
+      <c r="P77" s="2">
+        <f t="shared" ref="P77:P81" si="24">J77*0.4+K77*0.1+L77*0.1+M77*0.1+N77*0.1+O77*0.2</f>
+        <v>95</v>
+      </c>
+      <c r="R77" s="2">
+        <f t="shared" ref="R77:R81" si="25">P77*0.5+H77*0.5</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" spans="1:18">
+      <c r="A78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="2">
+        <v>38</v>
+      </c>
+      <c r="C78" s="2">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2">
+        <v>8</v>
+      </c>
+      <c r="F78" s="2">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2">
+        <v>9</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="23"/>
+        <v>92</v>
+      </c>
+      <c r="J78" s="2">
+        <v>86</v>
+      </c>
+      <c r="K78" s="2">
+        <v>93</v>
+      </c>
+      <c r="L78" s="2">
+        <v>92</v>
+      </c>
+      <c r="M78" s="2">
+        <v>93</v>
+      </c>
+      <c r="N78" s="2">
+        <v>88</v>
+      </c>
+      <c r="O78" s="2">
+        <v>87</v>
+      </c>
+      <c r="P78" s="2">
+        <f t="shared" si="24"/>
+        <v>88.4</v>
+      </c>
+      <c r="R78" s="2">
+        <f t="shared" si="25"/>
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" spans="1:18">
+      <c r="A79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="2">
+        <v>35</v>
+      </c>
+      <c r="C79" s="2">
+        <v>18</v>
+      </c>
+      <c r="D79" s="2">
+        <v>9</v>
+      </c>
+      <c r="E79" s="2">
+        <v>9</v>
+      </c>
+      <c r="F79" s="2">
+        <v>8</v>
+      </c>
+      <c r="G79" s="2">
+        <v>9</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="23"/>
+        <v>88</v>
+      </c>
+      <c r="J79" s="2">
+        <v>86</v>
+      </c>
+      <c r="K79" s="2">
+        <v>83</v>
+      </c>
+      <c r="L79" s="2">
+        <v>82</v>
+      </c>
+      <c r="M79" s="2">
+        <v>86</v>
+      </c>
+      <c r="N79" s="2">
+        <v>82</v>
+      </c>
+      <c r="O79" s="2">
+        <v>84</v>
+      </c>
+      <c r="P79" s="2">
+        <f t="shared" si="24"/>
+        <v>84.5</v>
+      </c>
+      <c r="R79" s="2">
+        <f t="shared" si="25"/>
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" spans="1:18">
+      <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="2">
+        <v>36</v>
+      </c>
+      <c r="C80" s="2">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2">
+        <v>9</v>
+      </c>
+      <c r="E80" s="2">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2">
+        <v>9</v>
+      </c>
+      <c r="G80" s="2">
+        <v>9</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="23"/>
+        <v>90</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2">
+        <v>86</v>
+      </c>
+      <c r="K80" s="2">
+        <v>86</v>
+      </c>
+      <c r="L80" s="2">
+        <v>85</v>
+      </c>
+      <c r="M80" s="2">
+        <v>88</v>
+      </c>
+      <c r="N80" s="2">
+        <v>87</v>
+      </c>
+      <c r="O80" s="2">
+        <v>90</v>
+      </c>
+      <c r="P80" s="2">
+        <f t="shared" si="24"/>
+        <v>87</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2">
+        <f t="shared" si="25"/>
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" spans="1:18">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="2">
+        <v>37</v>
+      </c>
+      <c r="C81" s="2">
+        <v>18</v>
+      </c>
+      <c r="D81" s="2">
+        <v>8</v>
+      </c>
+      <c r="E81" s="2">
+        <v>10</v>
+      </c>
+      <c r="F81" s="2">
+        <v>9</v>
+      </c>
+      <c r="G81" s="2">
+        <v>10</v>
+      </c>
+      <c r="H81" s="2">
+        <f t="shared" si="23"/>
+        <v>92</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2">
+        <v>92</v>
+      </c>
+      <c r="K81" s="2">
+        <v>92</v>
+      </c>
+      <c r="L81" s="2">
+        <v>91</v>
+      </c>
+      <c r="M81" s="2">
+        <v>93</v>
+      </c>
+      <c r="N81" s="2">
+        <v>90</v>
+      </c>
+      <c r="O81" s="2">
+        <v>96</v>
+      </c>
+      <c r="P81" s="2">
+        <f t="shared" si="24"/>
+        <v>92.6</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2">
+        <f t="shared" si="25"/>
+        <v>92.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
